--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_14.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-35212.26503580843</v>
+        <v>20538.13183833274</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17367124.05617157</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484455</v>
+        <v>492028.9342484443</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8587970.91445264</v>
+        <v>8605396.16138196</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>322.5513054085289</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
         <v>0.4126214791313976</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.203262463343094</v>
+        <v>399.9654629415579</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +814,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.93457879676909</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
         <v>174.9399834978613</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>200.9589672195478</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>308.3086748172354</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>424.3161878797243</v>
       </c>
       <c r="D5" t="n">
         <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -962,7 +962,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>105.2234111170471</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
@@ -1117,10 +1117,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>190.2204904348368</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>178.0857308800425</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>415.5764419139131</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>25.42273212874384</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1309,7 +1309,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>101.7706336613758</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1382,13 +1382,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>240.5262079592399</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
         <v>217.8665548556918</v>
@@ -1433,7 +1433,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>146.9399060518605</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1540,10 +1540,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>160.7884964950065</v>
       </c>
       <c r="H13" t="n">
-        <v>103.3456594571959</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1622,10 +1622,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>244.6696456960182</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,7 +1658,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>206.485501777224</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,19 +1813,19 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>199.1362892344175</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
-        <v>269.3061403695714</v>
+        <v>266.8594808797422</v>
       </c>
       <c r="X16" t="n">
         <v>242.9378371199217</v>
@@ -1850,7 +1850,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>130.8250889428055</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -1859,7 +1859,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H17" t="n">
-        <v>286.2388530112159</v>
+        <v>236.0942751322861</v>
       </c>
       <c r="I17" t="n">
         <v>0.4126214791313976</v>
@@ -1895,7 +1895,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>256.6300796561533</v>
@@ -1907,7 +1907,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864822</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2005,13 +2005,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>130.9394714210109</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2020,7 +2020,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>148.8597651552996</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2062,7 +2062,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2093,13 +2093,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>397.3838530629687</v>
+        <v>129.7853418074802</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2138,7 +2138,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>60.37887211503079</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2245,13 +2245,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>203.2613507217563</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2305,7 +2305,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y22" t="n">
-        <v>225.1454739790328</v>
+        <v>23.21215624113646</v>
       </c>
     </row>
     <row r="23">
@@ -2485,7 +2485,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>35.34780583513577</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2725,13 +2725,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>22.28534392847765</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225841</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2953,7 +2953,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225785</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3010,7 +3010,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>67.65667327773724</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>18.0567773522574</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3247,7 +3247,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
-        <v>148.8597651552998</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X34" t="n">
         <v>242.9378371199217</v>
@@ -3427,7 +3427,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>24.62703520776661</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>405.8008644413113</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>417.5253377496635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>415.3149766385525</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>413.2012870545404</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>407.353044956137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>381.1481427242214</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H38" t="n">
-        <v>270.0031426724685</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925398</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T38" t="n">
-        <v>201.6308445169444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U38" t="n">
-        <v>240.3943693174059</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>342.7550702267644</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>384.5711897043296</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
-        <v>398.7153284477354</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
-        <v>387.9675521245957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="39">
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.6647221930499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>151.8247133730227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>158.704273159114</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>147.6996518856832</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>122.2674422277818</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432403</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934462</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>141.4132446762359</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006783</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>267.8502427095265</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>208.9097636402854</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.8008644413113</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>417.5253377496635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>415.3149766385525</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>413.2012870545404</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>407.353044956137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>381.1481427242214</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>270.0031426724685</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925398</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>201.6308445169444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>240.3943693174059</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>342.7550702267644</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>384.5711897043296</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>398.715328447735</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>387.9675521245957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>173.6647221930499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>151.8247133730227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>158.704273159114</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>147.6996518856832</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432403</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934462</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>141.4132446762359</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1849416185819</v>
+        <v>122.9742767430569</v>
       </c>
       <c r="U43" t="n">
-        <v>259.4129604006783</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>267.8502427095265</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y43" t="n">
-        <v>208.9097636402854</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>405.8008644413113</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>417.5253377496635</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>415.3149766385525</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>413.2012870545404</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>407.353044956137</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>381.1481427242214</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>270.0031426724685</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925398</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T44" t="n">
-        <v>201.6308445169444</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>240.3943693174059</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>342.7550702267644</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>384.5711897043296</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>398.715328447735</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>387.9675521245957</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>173.6647221930499</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>154.6003840628599</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>147.9835025317452</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>151.8247133730227</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>158.704273159114</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>147.6996518856832</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>122.2674422277819</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432403</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934462</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>141.4132446762359</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1849416185819</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>259.4129604006783</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
-        <v>267.8502427095265</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W46" t="n">
-        <v>253.070430030824</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>226.7021267811743</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>208.9097636402854</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>846.6806259663152</v>
+        <v>1670.308256514056</v>
       </c>
       <c r="C2" t="n">
-        <v>812.5785571901426</v>
+        <v>1636.206187737883</v>
       </c>
       <c r="D2" t="n">
-        <v>383.996882927411</v>
+        <v>1200.296402912328</v>
       </c>
       <c r="E2" t="n">
-        <v>58.18748352485655</v>
+        <v>766.5216580706228</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>338.6542284798305</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>338.6542284798305</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.52407392304679</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>484.3619720031047</v>
       </c>
       <c r="K2" t="n">
-        <v>267.8706684926505</v>
+        <v>1092.064618311666</v>
       </c>
       <c r="L2" t="n">
-        <v>267.8706684926505</v>
+        <v>1132.008730489126</v>
       </c>
       <c r="M2" t="n">
-        <v>267.8706684926505</v>
+        <v>1132.008730489126</v>
       </c>
       <c r="N2" t="n">
-        <v>267.8706684926505</v>
+        <v>1132.008730489126</v>
       </c>
       <c r="O2" t="n">
-        <v>687.9235674375537</v>
+        <v>1132.008730489126</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797688</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756282</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693176</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693176</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2112.490051010193</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2112.490051010193</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>2111.675000461631</v>
       </c>
       <c r="X2" t="n">
-        <v>1277.225916111166</v>
+        <v>2096.572941081346</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1692.56742295856</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295434</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.064410519212</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539587</v>
+        <v>90.84293673397431</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064439</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768567</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985418</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>604.8041211489747</v>
+        <v>1128.165445162068</v>
       </c>
       <c r="C4" t="n">
-        <v>604.8041211489747</v>
+        <v>955.6037336452931</v>
       </c>
       <c r="D4" t="n">
-        <v>604.8041211489747</v>
+        <v>789.7257408468158</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>619.967737097553</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>443.2606830593093</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>277.6694080851369</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018679</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>135.6869697148767</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>200.0427573423654</v>
       </c>
       <c r="L4" t="n">
-        <v>761.43086230084</v>
+        <v>618.2526391103264</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>1077.736506291239</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1519.995309448884</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1939.664558674666</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2287.171452645007</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509339</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214711</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>2274.705037512708</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>2028.825591091163</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1750.392590344268</v>
       </c>
       <c r="V4" t="n">
-        <v>1172.870982911978</v>
+        <v>1750.392590344268</v>
       </c>
       <c r="W4" t="n">
-        <v>900.8445784982696</v>
+        <v>1750.392590344268</v>
       </c>
       <c r="X4" t="n">
-        <v>900.8445784982696</v>
+        <v>1547.403734566947</v>
       </c>
       <c r="Y4" t="n">
-        <v>673.4249078123778</v>
+        <v>1319.984063881055</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>153.4764845146214</v>
+        <v>1373.289198434989</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>944.6869884554692</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>912.8176076703178</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>479.0428628286129</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K5" t="n">
-        <v>267.8706684926505</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L5" t="n">
-        <v>267.8706684926505</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M5" t="n">
-        <v>267.8706684926505</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>2009.22077188965</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2223.792002549091</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1818.936547960124</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>1399.794084539435</v>
       </c>
       <c r="Y5" t="n">
-        <v>464.8993883704147</v>
+        <v>1395.548364879493</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>262.5057921365585</v>
+        <v>922.1364226482438</v>
       </c>
       <c r="C7" t="n">
-        <v>262.5057921365585</v>
+        <v>749.5747111314687</v>
       </c>
       <c r="D7" t="n">
-        <v>262.5057921365585</v>
+        <v>583.6967183329914</v>
       </c>
       <c r="E7" t="n">
-        <v>262.5057921365585</v>
+        <v>413.9387145837287</v>
       </c>
       <c r="F7" t="n">
-        <v>262.5057921365585</v>
+        <v>413.9387145837287</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>248.3474396095563</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L7" t="n">
-        <v>437.4083829648294</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M7" t="n">
-        <v>857.4612819097326</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1277.514180854636</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S7" t="n">
-        <v>1537.942061378414</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T7" t="n">
-        <v>1292.062614956869</v>
+        <v>2424.181380009883</v>
       </c>
       <c r="U7" t="n">
-        <v>1013.629614209975</v>
+        <v>2145.748379262988</v>
       </c>
       <c r="V7" t="n">
-        <v>726.6741060804052</v>
+        <v>1858.792871133419</v>
       </c>
       <c r="W7" t="n">
-        <v>454.6477016666967</v>
+        <v>1586.76646671971</v>
       </c>
       <c r="X7" t="n">
-        <v>262.5057921365585</v>
+        <v>1341.374712053123</v>
       </c>
       <c r="Y7" t="n">
-        <v>262.5057921365585</v>
+        <v>1113.955041367231</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>963.8890227730066</v>
+        <v>2223.59842635773</v>
       </c>
       <c r="C8" t="n">
-        <v>525.7465499564298</v>
+        <v>1785.455953541153</v>
       </c>
       <c r="D8" t="n">
-        <v>493.8771691712784</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E8" t="n">
-        <v>464.1428283699776</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F8" t="n">
-        <v>44.36864461855026</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>44.36864461855026</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
-        <v>44.36864461855026</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>44.36864461855026</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>44.36864461855026</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>404.6554259067424</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="L8" t="n">
-        <v>404.6554259067424</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="M8" t="n">
-        <v>404.6554259067424</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="N8" t="n">
-        <v>404.6554259067424</v>
+        <v>632.7278666362198</v>
       </c>
       <c r="O8" t="n">
-        <v>953.7174030613019</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1502.779380215861</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>2049.278166174456</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>2218.432230927513</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2218.432230927513</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2218.432230927513</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2218.432230927513</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>2218.432230927513</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>2217.61718037895</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>1798.474716958261</v>
+        <v>2654.14371650258</v>
       </c>
       <c r="Y8" t="n">
-        <v>1390.188593257914</v>
+        <v>2245.857592802233</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>550.540389609843</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>444.0839284464853</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>348.9936395930386</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>254.8732249199923</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>171.4893865361539</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>86.10429680233779</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>44.36864461855026</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>70.43231777900786</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>394.9906427452202</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>944.0526198997796</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>1049.696689370944</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>1049.696689370944</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1049.696689370944</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1049.696689370944</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1049.696689370944</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1590.435628003019</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1707.608406097359</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1644.152968545742</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1513.974324876344</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1337.637777876312</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1138.520259938311</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>953.1975056715055</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>798.3300699103854</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>671.8442906896062</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>640.9086245686881</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>640.9086245686881</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>640.9086245686881</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>615.2290971659165</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>438.5220431276728</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>272.9307681535004</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>133.0285938438749</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>44.36864461855026</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>44.36864461855026</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>131.3035356248711</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>549.5134173928321</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1008.997284573745</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1451.25608773139</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1870.925336957171</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>2218.432230927513</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>2218.432230927513</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2197.014409632885</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2197.014409632885</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1951.13496321134</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U10" t="n">
-        <v>1672.701962464445</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V10" t="n">
-        <v>1385.746454334876</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>1113.720049921167</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>868.3282952545799</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>640.9086245686881</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2070.061224011677</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C11" t="n">
-        <v>1631.918751195101</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D11" t="n">
-        <v>1196.008966369545</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E11" t="n">
-        <v>762.2342215278404</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>334.3667919370482</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>91.41102632165412</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>91.41102632165412</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I11" t="n">
-        <v>91.41102632165412</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J11" t="n">
-        <v>91.41102632165412</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>925.761318279832</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>2000.821284532691</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M11" t="n">
-        <v>2000.821284532691</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N11" t="n">
-        <v>2046.408923967353</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O11" t="n">
-        <v>3026.588590537659</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P11" t="n">
-        <v>3854.898465371055</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q11" t="n">
-        <v>4401.397251329649</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R11" t="n">
-        <v>4570.551316082706</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4570.551316082706</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4350.484088955744</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U11" t="n">
-        <v>4091.261786272761</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V11" t="n">
-        <v>3728.644836206588</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W11" t="n">
-        <v>3323.789381617621</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X11" t="n">
-        <v>2904.646918196932</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y11" t="n">
-        <v>2496.360794496585</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>597.5827713129469</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C12" t="n">
-        <v>491.1263101495892</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D12" t="n">
-        <v>396.0360212961425</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E12" t="n">
-        <v>301.9156066230962</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F12" t="n">
-        <v>218.5317682392578</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G12" t="n">
-        <v>133.1466785054417</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>91.41102632165412</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I12" t="n">
-        <v>117.4746994821117</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J12" t="n">
-        <v>442.0330244483241</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1096.739071074048</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1096.739071074048</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1096.739071074048</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1096.739071074048</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1096.739071074048</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
-        <v>1096.739071074048</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q12" t="n">
-        <v>1637.478009706123</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R12" t="n">
-        <v>1754.650787800463</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S12" t="n">
-        <v>1691.195350248846</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T12" t="n">
-        <v>1561.016706579448</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U12" t="n">
-        <v>1384.680159579416</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V12" t="n">
-        <v>1185.562641641415</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W12" t="n">
-        <v>1000.239887374609</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X12" t="n">
-        <v>845.3724516134893</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y12" t="n">
-        <v>718.88667239271</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1046.296618405854</v>
+        <v>944.0533615061025</v>
       </c>
       <c r="C13" t="n">
-        <v>873.7349068890786</v>
+        <v>771.4916499893275</v>
       </c>
       <c r="D13" t="n">
-        <v>707.8569140906013</v>
+        <v>605.6136571908503</v>
       </c>
       <c r="E13" t="n">
-        <v>538.0989103413385</v>
+        <v>435.8556534415875</v>
       </c>
       <c r="F13" t="n">
-        <v>361.3918563030948</v>
+        <v>259.1485994033437</v>
       </c>
       <c r="G13" t="n">
-        <v>195.8005813289224</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H13" t="n">
-        <v>91.41102632165412</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I13" t="n">
-        <v>91.41102632165412</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J13" t="n">
-        <v>177.990711486344</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K13" t="n">
-        <v>452.7491660574796</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>870.9590478254406</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1330.442915006354</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
-        <v>1772.701718163998</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O13" t="n">
-        <v>2192.37096738978</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P13" t="n">
-        <v>2539.877861360122</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q13" t="n">
-        <v>2708.070636224454</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2708.070636224454</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S13" t="n">
-        <v>2548.82926752245</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="T13" t="n">
-        <v>2302.949821100905</v>
+        <v>2446.098318867742</v>
       </c>
       <c r="U13" t="n">
-        <v>2024.516820354011</v>
+        <v>2167.665318120847</v>
       </c>
       <c r="V13" t="n">
-        <v>1737.561312224441</v>
+        <v>1880.709809991278</v>
       </c>
       <c r="W13" t="n">
-        <v>1465.534907810733</v>
+        <v>1608.683405577569</v>
       </c>
       <c r="X13" t="n">
-        <v>1465.534907810733</v>
+        <v>1363.291650910981</v>
       </c>
       <c r="Y13" t="n">
-        <v>1238.115237124841</v>
+        <v>1135.87198022509</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2480.338482626586</v>
+        <v>2523.375184062124</v>
       </c>
       <c r="C14" t="n">
-        <v>2042.196009810009</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D14" t="n">
-        <v>1606.286224984453</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E14" t="n">
-        <v>1172.511480142748</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F14" t="n">
-        <v>744.6440505519563</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G14" t="n">
-        <v>343.2462191752202</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H14" t="n">
-        <v>96.10516291661588</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.10516291661588</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J14" t="n">
-        <v>531.3598503695338</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K14" t="n">
-        <v>1365.710142327712</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2440.770108580571</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="M14" t="n">
-        <v>2450.269818468497</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="N14" t="n">
-        <v>2450.269818468497</v>
+        <v>2312.656441940406</v>
       </c>
       <c r="O14" t="n">
-        <v>3430.449485038803</v>
+        <v>3292.836108510713</v>
       </c>
       <c r="P14" t="n">
-        <v>4258.759359872199</v>
+        <v>4121.145983344109</v>
       </c>
       <c r="Q14" t="n">
-        <v>4805.258145830794</v>
+        <v>4667.644769302703</v>
       </c>
       <c r="R14" t="n">
-        <v>4805.258145830794</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4721.606272014631</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4501.53904488767</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="U14" t="n">
-        <v>4501.53904488767</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V14" t="n">
-        <v>4138.922094821496</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W14" t="n">
-        <v>3734.066640232529</v>
+        <v>3777.103341668068</v>
       </c>
       <c r="X14" t="n">
-        <v>3314.92417681184</v>
+        <v>3357.960878247379</v>
       </c>
       <c r="Y14" t="n">
-        <v>2906.638053111493</v>
+        <v>2949.674754547032</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>602.2769079079087</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C15" t="n">
-        <v>495.820446744551</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D15" t="n">
-        <v>400.7301578911042</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E15" t="n">
-        <v>306.6097432180579</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F15" t="n">
-        <v>223.2259048342195</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G15" t="n">
-        <v>137.8408151004034</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.10516291661588</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I15" t="n">
-        <v>122.1688360770735</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J15" t="n">
-        <v>446.7271610432858</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1101.43320766901</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1101.43320766901</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1101.43320766901</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1101.43320766901</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1101.43320766901</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q15" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R15" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S15" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T15" t="n">
-        <v>1565.71084317441</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U15" t="n">
-        <v>1389.374296174378</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V15" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W15" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X15" t="n">
-        <v>850.0665882084511</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y15" t="n">
-        <v>723.5808089876718</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1009.572048554325</v>
+        <v>1087.134188067672</v>
       </c>
       <c r="C16" t="n">
-        <v>837.0103370375499</v>
+        <v>914.5724765508968</v>
       </c>
       <c r="D16" t="n">
-        <v>671.1323442390726</v>
+        <v>748.6944837524195</v>
       </c>
       <c r="E16" t="n">
-        <v>501.3743404898098</v>
+        <v>578.9364800031568</v>
       </c>
       <c r="F16" t="n">
-        <v>324.667286451566</v>
+        <v>402.229425964913</v>
       </c>
       <c r="G16" t="n">
-        <v>324.667286451566</v>
+        <v>236.6381509907407</v>
       </c>
       <c r="H16" t="n">
-        <v>184.7651121419406</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I16" t="n">
-        <v>96.10516291661588</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J16" t="n">
-        <v>182.6848480813057</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K16" t="n">
-        <v>457.4433026524413</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>875.6531844204023</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
-        <v>1777.39585475896</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O16" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P16" t="n">
-        <v>2544.571997955083</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q16" t="n">
-        <v>2712.764772819416</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2712.764772819416</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2712.764772819416</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2511.617005915964</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2233.184005169069</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="V16" t="n">
-        <v>1946.2284970395</v>
+        <v>2021.319263330797</v>
       </c>
       <c r="W16" t="n">
-        <v>1674.202092625791</v>
+        <v>1751.764232139138</v>
       </c>
       <c r="X16" t="n">
-        <v>1428.810337959204</v>
+        <v>1506.372477472551</v>
       </c>
       <c r="Y16" t="n">
-        <v>1201.390667273312</v>
+        <v>1278.952806786659</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2221.116179943603</v>
+        <v>2472.724095295529</v>
       </c>
       <c r="C17" t="n">
-        <v>1782.973707127026</v>
+        <v>2034.581622478952</v>
       </c>
       <c r="D17" t="n">
-        <v>1347.06392230147</v>
+        <v>1598.671837653396</v>
       </c>
       <c r="E17" t="n">
-        <v>1214.917367813788</v>
+        <v>1164.897092811691</v>
       </c>
       <c r="F17" t="n">
-        <v>787.0499382229957</v>
+        <v>737.0296632208994</v>
       </c>
       <c r="G17" t="n">
-        <v>385.6521068462596</v>
+        <v>335.6318318441632</v>
       </c>
       <c r="H17" t="n">
-        <v>96.52195228947588</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I17" t="n">
-        <v>96.10516291661588</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J17" t="n">
-        <v>531.3598503695338</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K17" t="n">
-        <v>1365.710142327712</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>2440.770108580571</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2450.269818468497</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N17" t="n">
-        <v>2450.269818468497</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O17" t="n">
-        <v>3430.449485038803</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P17" t="n">
-        <v>4258.759359872199</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q17" t="n">
-        <v>4805.258145830794</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R17" t="n">
-        <v>4805.258145830794</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S17" t="n">
-        <v>4721.606272014631</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T17" t="n">
-        <v>4501.53904488767</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="U17" t="n">
-        <v>4242.316742204686</v>
+        <v>4493.924657556612</v>
       </c>
       <c r="V17" t="n">
-        <v>3879.699792138513</v>
+        <v>4131.307707490439</v>
       </c>
       <c r="W17" t="n">
-        <v>3474.844337549546</v>
+        <v>3726.452252901472</v>
       </c>
       <c r="X17" t="n">
-        <v>3055.701874128857</v>
+        <v>3307.309789480783</v>
       </c>
       <c r="Y17" t="n">
-        <v>2647.41575042851</v>
+        <v>2899.023665780436</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>602.2769079079087</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C18" t="n">
-        <v>495.820446744551</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D18" t="n">
-        <v>400.7301578911042</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E18" t="n">
-        <v>306.6097432180579</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F18" t="n">
-        <v>223.2259048342195</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G18" t="n">
-        <v>137.8408151004034</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H18" t="n">
-        <v>96.10516291661588</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I18" t="n">
-        <v>122.1688360770735</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J18" t="n">
-        <v>446.7271610432858</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>1101.43320766901</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L18" t="n">
-        <v>1101.43320766901</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M18" t="n">
-        <v>1101.43320766901</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N18" t="n">
-        <v>1101.43320766901</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O18" t="n">
-        <v>1101.43320766901</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P18" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q18" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R18" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S18" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T18" t="n">
-        <v>1565.71084317441</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U18" t="n">
-        <v>1389.374296174378</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V18" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W18" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X18" t="n">
-        <v>850.0665882084511</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y18" t="n">
-        <v>723.5808089876718</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1086.503374303173</v>
+        <v>965.4711828007308</v>
       </c>
       <c r="C19" t="n">
-        <v>913.9416627863976</v>
+        <v>792.9094712839558</v>
       </c>
       <c r="D19" t="n">
-        <v>748.0636699879203</v>
+        <v>660.6473789395004</v>
       </c>
       <c r="E19" t="n">
-        <v>578.3056662386575</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="F19" t="n">
-        <v>401.5986122004137</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G19" t="n">
-        <v>236.0073372262414</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H19" t="n">
-        <v>96.10516291661588</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I19" t="n">
-        <v>96.10516291661588</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J19" t="n">
-        <v>182.6848480813057</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K19" t="n">
-        <v>457.4433026524413</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L19" t="n">
-        <v>875.6531844204023</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M19" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N19" t="n">
-        <v>1777.39585475896</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O19" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P19" t="n">
-        <v>2544.571997955083</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q19" t="n">
-        <v>2712.764772819416</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2712.764772819416</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2562.401373672648</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T19" t="n">
-        <v>2316.521927251104</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U19" t="n">
-        <v>2038.088926504209</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V19" t="n">
-        <v>1751.133418374639</v>
+        <v>1902.127631285906</v>
       </c>
       <c r="W19" t="n">
-        <v>1751.133418374639</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X19" t="n">
-        <v>1505.741663708052</v>
+        <v>1384.70947220561</v>
       </c>
       <c r="Y19" t="n">
-        <v>1278.32199302216</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2522.744370297624</v>
+        <v>2252.656868168569</v>
       </c>
       <c r="C20" t="n">
-        <v>2084.601897481047</v>
+        <v>1814.514395351992</v>
       </c>
       <c r="D20" t="n">
-        <v>1648.692112655492</v>
+        <v>1378.604610526437</v>
       </c>
       <c r="E20" t="n">
-        <v>1214.917367813788</v>
+        <v>944.8298656847319</v>
       </c>
       <c r="F20" t="n">
-        <v>787.0499382229957</v>
+        <v>516.9624360939396</v>
       </c>
       <c r="G20" t="n">
-        <v>385.6521068462596</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H20" t="n">
-        <v>96.52195228947588</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I20" t="n">
-        <v>96.10516291661588</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J20" t="n">
-        <v>531.3598503695338</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K20" t="n">
-        <v>1365.710142327712</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>2440.770108580571</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2450.269818468497</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2450.269818468497</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O20" t="n">
-        <v>3430.449485038803</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P20" t="n">
-        <v>4258.759359872199</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q20" t="n">
-        <v>4805.258145830794</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R20" t="n">
-        <v>4805.258145830794</v>
+        <v>4836.79883405576</v>
       </c>
       <c r="S20" t="n">
-        <v>4721.606272014631</v>
+        <v>4753.146960239597</v>
       </c>
       <c r="T20" t="n">
-        <v>4501.53904488767</v>
+        <v>4533.079733112636</v>
       </c>
       <c r="U20" t="n">
-        <v>4242.316742204686</v>
+        <v>4273.857430429653</v>
       </c>
       <c r="V20" t="n">
-        <v>4181.327982492534</v>
+        <v>3911.240480363479</v>
       </c>
       <c r="W20" t="n">
-        <v>3776.472527903567</v>
+        <v>3506.385025774513</v>
       </c>
       <c r="X20" t="n">
-        <v>3357.330064482878</v>
+        <v>3087.242562353823</v>
       </c>
       <c r="Y20" t="n">
-        <v>2949.043940782532</v>
+        <v>2678.956438653477</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>602.2769079079087</v>
+        <v>602.907721672408</v>
       </c>
       <c r="C21" t="n">
-        <v>495.820446744551</v>
+        <v>496.4512605090503</v>
       </c>
       <c r="D21" t="n">
-        <v>400.7301578911042</v>
+        <v>401.3609716556035</v>
       </c>
       <c r="E21" t="n">
-        <v>306.6097432180579</v>
+        <v>307.2405569825572</v>
       </c>
       <c r="F21" t="n">
-        <v>223.2259048342195</v>
+        <v>223.8567185987188</v>
       </c>
       <c r="G21" t="n">
-        <v>137.8408151004034</v>
+        <v>138.4716288649027</v>
       </c>
       <c r="H21" t="n">
-        <v>96.10516291661588</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="I21" t="n">
-        <v>122.1688360770735</v>
+        <v>122.7996498415728</v>
       </c>
       <c r="J21" t="n">
-        <v>446.7271610432858</v>
+        <v>447.3579748077852</v>
       </c>
       <c r="K21" t="n">
-        <v>446.7271610432858</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L21" t="n">
-        <v>446.7271610432858</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M21" t="n">
-        <v>446.7271610432858</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N21" t="n">
-        <v>446.7271610432858</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O21" t="n">
-        <v>446.7271610432858</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P21" t="n">
-        <v>1101.43320766901</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="Q21" t="n">
-        <v>1642.172146301085</v>
+        <v>1642.802960065584</v>
       </c>
       <c r="R21" t="n">
-        <v>1759.344924395425</v>
+        <v>1759.975738159924</v>
       </c>
       <c r="S21" t="n">
-        <v>1695.889486843808</v>
+        <v>1696.520300608307</v>
       </c>
       <c r="T21" t="n">
-        <v>1565.71084317441</v>
+        <v>1566.341656938909</v>
       </c>
       <c r="U21" t="n">
-        <v>1389.374296174378</v>
+        <v>1390.005109938877</v>
       </c>
       <c r="V21" t="n">
-        <v>1190.256778236377</v>
+        <v>1190.887592000876</v>
       </c>
       <c r="W21" t="n">
-        <v>1004.934023969571</v>
+        <v>1005.56483773407</v>
       </c>
       <c r="X21" t="n">
-        <v>850.0665882084511</v>
+        <v>850.6974019729504</v>
       </c>
       <c r="Y21" t="n">
-        <v>723.5808089876718</v>
+        <v>724.2116227521711</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1005.405319779235</v>
+        <v>1010.202862318824</v>
       </c>
       <c r="C22" t="n">
-        <v>832.8436082624595</v>
+        <v>837.6411508020492</v>
       </c>
       <c r="D22" t="n">
-        <v>666.9656154639822</v>
+        <v>671.7631580035719</v>
       </c>
       <c r="E22" t="n">
-        <v>666.9656154639822</v>
+        <v>502.0051542543091</v>
       </c>
       <c r="F22" t="n">
-        <v>490.2585614257384</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="G22" t="n">
-        <v>324.667286451566</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H22" t="n">
-        <v>184.7651121419406</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I22" t="n">
-        <v>96.10516291661588</v>
+        <v>96.7359766811152</v>
       </c>
       <c r="J22" t="n">
-        <v>182.6848480813057</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K22" t="n">
-        <v>457.4433026524413</v>
+        <v>458.0741164169406</v>
       </c>
       <c r="L22" t="n">
-        <v>875.6531844204023</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M22" t="n">
-        <v>1335.137051601315</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N22" t="n">
-        <v>1777.39585475896</v>
+        <v>1778.026668523459</v>
       </c>
       <c r="O22" t="n">
-        <v>2197.065103984741</v>
+        <v>2197.695917749241</v>
       </c>
       <c r="P22" t="n">
-        <v>2544.571997955083</v>
+        <v>2545.202811719583</v>
       </c>
       <c r="Q22" t="n">
-        <v>2712.764772819416</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2712.764772819416</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2712.764772819416</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T22" t="n">
-        <v>2507.450277140874</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U22" t="n">
-        <v>2229.017276393979</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V22" t="n">
-        <v>1942.061768264409</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W22" t="n">
-        <v>1670.035363850701</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X22" t="n">
-        <v>1424.643609184114</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y22" t="n">
-        <v>1197.223938498222</v>
+        <v>1202.021481037811</v>
       </c>
     </row>
     <row r="23">
@@ -5975,13 +5975,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
@@ -6026,13 +6026,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.7568773477109</v>
+        <v>811.7546776883922</v>
       </c>
       <c r="C25" t="n">
-        <v>780.1951658309357</v>
+        <v>639.1929661716172</v>
       </c>
       <c r="D25" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731398</v>
       </c>
       <c r="E25" t="n">
-        <v>444.5591692831957</v>
+        <v>303.556969623877</v>
       </c>
       <c r="F25" t="n">
         <v>267.852115244952</v>
@@ -6172,25 +6172,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T25" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U25" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V25" t="n">
-        <v>1889.413325832885</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W25" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X25" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y25" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="26">
@@ -6212,13 +6212,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477108</v>
+        <v>949.5782250957676</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309357</v>
+        <v>777.0165135789927</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324584</v>
+        <v>611.1385207805154</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692831957</v>
+        <v>441.3805170312526</v>
       </c>
       <c r="F28" t="n">
-        <v>267.852115244952</v>
+        <v>264.6734629930088</v>
       </c>
       <c r="G28" t="n">
-        <v>102.2608402707796</v>
+        <v>264.6734629930088</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>124.7712886833833</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6388,7 +6388,7 @@
         <v>463.598980006605</v>
       </c>
       <c r="L28" t="n">
-        <v>881.8088617745661</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M28" t="n">
         <v>1341.292728955479</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.681281130895</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.80183470935</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.368833962455</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.413325832885</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419177</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.99516675259</v>
+        <v>1368.816514500646</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066698</v>
+        <v>1141.396843814755</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1680.07105215565</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1434.679297489063</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2718.920450173579</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2473.041003752035</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2194.60800300514</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>1907.65249487557</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W34" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6917,46 +6917,46 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R35" t="n">
         <v>5113.04201353898</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>811.7546776883918</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C37" t="n">
-        <v>639.1929661716167</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D37" t="n">
         <v>614.3171730324585</v>
       </c>
       <c r="E37" t="n">
-        <v>444.5591692831958</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
         <v>267.852115244952</v>
@@ -7120,25 +7120,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.411126173567</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1230.992967093271</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C38" t="n">
-        <v>2003.64811180301</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E38" t="n">
-        <v>1166.762996961502</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G38" t="n">
-        <v>370.2971508197255</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581785</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>532.8213911287357</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>1367.171683086914</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>2523.346856428595</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>3503.526522998902</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4331.836397832298</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4878.335183790892</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790892</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>4811.083017387606</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.415497673521</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403414</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4018.375659750116</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
-        <v>3629.919912574026</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y38" t="n">
-        <v>2835.290740278742</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C39" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D39" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E39" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F39" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>123.6303768362754</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N39" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O39" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P39" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S39" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T39" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V39" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W39" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y39" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1061.826912397567</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>905.6649082936674</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D40" t="n">
-        <v>756.1866229080662</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E40" t="n">
-        <v>602.8283265716796</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F40" t="n">
-        <v>442.5209799463119</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>293.3294123850156</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>169.8269454882664</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>200.2197420758678</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>491.0515498823633</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>925.3347848856843</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>1400.892005301957</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>1859.224161694962</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>2294.966764156103</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>2658.547011361805</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>2842.813139461497</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579745</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2694.953364290618</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T40" t="n">
-        <v>2465.473625281949</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U40" t="n">
-        <v>2203.44033194793</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V40" t="n">
-        <v>1932.884531231237</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W40" t="n">
-        <v>1677.257834230405</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X40" t="n">
-        <v>1448.265786976693</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1237.245823703678</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2425.39087720671</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2003.64811180301</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
-        <v>1584.13803439033</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1166.762996961501</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835853</v>
+        <v>793.2056155771602</v>
       </c>
       <c r="G41" t="n">
-        <v>370.2971508197254</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581785</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>532.8213911287357</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>1367.171683086914</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>2523.346856428595</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N41" t="n">
-        <v>2523.346856428595</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>3503.526522998902</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4331.836397832298</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>4878.335183790892</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790892</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S41" t="n">
-        <v>4811.083017387605</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4018.375659750116</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3227.177156566212</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2835.290740278742</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>123.6303768362754</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L42" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M42" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N42" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O42" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P42" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1061.826912397567</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936676</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080664</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716797</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H43" t="n">
-        <v>169.8269454882665</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>200.2197420758676</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>491.0515498823631</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>925.334784885684</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1400.892005301957</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1859.224161694961</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2294.966764156103</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2658.547011361805</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2842.813139461497</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2837.795025579745</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2694.953364290618</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2594.704009018976</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V43" t="n">
-        <v>1932.884531231237</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W43" t="n">
-        <v>1677.257834230405</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y43" t="n">
-        <v>1237.245823703678</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.39087720671</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>2003.64811180301</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.13803439033</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.762996961501</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835853</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>370.2971508197254</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>532.8213911287357</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>1367.171683086914</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>2442.231649339773</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N44" t="n">
-        <v>2523.346856428595</v>
+        <v>3304.552472135278</v>
       </c>
       <c r="O44" t="n">
-        <v>3503.526522998902</v>
+        <v>4284.732138705584</v>
       </c>
       <c r="P44" t="n">
-        <v>4331.836397832298</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q44" t="n">
-        <v>4878.335183790892</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387605</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>4607.41549767352</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403413</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750116</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574025</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566212</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.290740278741</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>603.7384486671107</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>497.2819875037529</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>402.1916986503062</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>308.0712839772599</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>224.6874455934215</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>139.3023558596054</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>123.6303768362754</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L45" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M45" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N45" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O45" t="n">
-        <v>448.1887018024878</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P45" t="n">
-        <v>1102.894748428211</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1643.633687060287</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1760.806465154627</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1697.35102760301</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1567.172383933611</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1390.83583693358</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1191.718318995579</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>1006.395564728773</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>851.5281289676531</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>725.0423497468738</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1061.826912397566</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C46" t="n">
-        <v>905.6649082936672</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D46" t="n">
-        <v>756.1866229080661</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E46" t="n">
-        <v>602.8283265716794</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F46" t="n">
-        <v>442.5209799463117</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850155</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882663</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>200.2197420758676</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>491.0515498823631</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>925.334784885684</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1400.892005301957</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O46" t="n">
-        <v>2294.966764156103</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q46" t="n">
-        <v>2842.813139461496</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2837.795025579744</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2694.953364290617</v>
+        <v>2700.681281130894</v>
       </c>
       <c r="T46" t="n">
-        <v>2465.473625281949</v>
+        <v>2454.801834709349</v>
       </c>
       <c r="U46" t="n">
-        <v>2203.44033194793</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V46" t="n">
-        <v>1932.884531231236</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W46" t="n">
-        <v>1677.257834230404</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X46" t="n">
-        <v>1448.265786976693</v>
+        <v>1371.995166752589</v>
       </c>
       <c r="Y46" t="n">
-        <v>1237.245823703677</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805804063</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854771</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,19 +8137,19 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>65.00584608837249</v>
       </c>
       <c r="L4" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -8216,10 +8216,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>640.5448952297622</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8371,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>363.9260417052446</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,10 +8465,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>554.6080577318783</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>554.6080577318783</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8532,10 +8532,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>554.6080577318783</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>106.7111812840044</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8547,7 +8547,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8608,10 +8608,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>87.81302121850588</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
@@ -8629,7 +8629,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>46.04812064107182</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8769,7 +8769,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8784,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,10 +8930,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M14" t="n">
-        <v>9.595666553460433</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>9.595666553460433</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,22 +9243,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>9.595666553460433</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.81776196807368</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9480,7 +9480,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9495,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>81.93455261497229</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10844,7 +10844,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -11066,10 +11066,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>81.93455261497229</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11081,7 +11081,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>81.93455261497229</v>
+        <v>866.2895820207509</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11315,7 +11315,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -11391,7 +11391,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23270,13 +23270,13 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>156.8576451037289</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23306,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>268.0111327346219</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>3.146865729424064</v>
       </c>
       <c r="H13" t="n">
-        <v>35.15749310933332</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
         <v>87.77334973307141</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23510,10 +23510,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>41.56920731519767</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>11.38105307846772</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,19 +23701,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>44.2843627229118</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2.446659489829187</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23738,7 +23738,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>298.6119084504822</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>50.14457787892977</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23783,7 +23783,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23893,13 +23893,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>33.27974144948161</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>8.789189859683717</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23950,7 +23950,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23981,13 +23981,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>267.5985112554885</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>298.6119084504809</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24133,13 +24133,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24175,10 +24175,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>40.15930123557298</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>201.9333177378963</v>
       </c>
     </row>
     <row r="23">
@@ -24373,7 +24373,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24412,7 +24412,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>65.48800580459375</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627249</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>201.6494670918341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25135,7 +25135,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>120.4463752142715</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>120.4463752142724</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,10 +26068,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>756738.3944419231</v>
+        <v>758682.2474722606</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>756738.3944419231</v>
+        <v>759232.6948534566</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>758074.7921250646</v>
+        <v>759232.6948534566</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>691317.2396375982</v>
+        <v>720628.1591798266</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>717155.8767641759</v>
+        <v>720628.1591798267</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>717155.8767641758</v>
+        <v>720628.1591798265</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>717155.8767641761</v>
+        <v>720628.1591798267</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>763582.7722794388</v>
+        <v>751039.4909720032</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>763582.7722794388</v>
+        <v>751039.4909720031</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>763582.7722794388</v>
+        <v>751039.4909720032</v>
       </c>
     </row>
   </sheetData>
@@ -26320,25 +26320,25 @@
         <v>187651.561961643</v>
       </c>
       <c r="E2" t="n">
-        <v>169736.7545837092</v>
+        <v>176933.3642900868</v>
       </c>
       <c r="F2" t="n">
-        <v>176080.8266786429</v>
+        <v>176933.3642900867</v>
       </c>
       <c r="G2" t="n">
-        <v>176080.8266786429</v>
+        <v>176933.3642900867</v>
       </c>
       <c r="H2" t="n">
-        <v>176080.8266786429</v>
+        <v>176933.3642900868</v>
       </c>
       <c r="I2" t="n">
         <v>184400.1544480733</v>
       </c>
       <c r="J2" t="n">
-        <v>184400.1544480734</v>
+        <v>184400.1544480733</v>
       </c>
       <c r="K2" t="n">
-        <v>184400.1544480734</v>
+        <v>184400.1544480733</v>
       </c>
       <c r="L2" t="n">
         <v>184400.1544480733</v>
@@ -26347,13 +26347,13 @@
         <v>184400.1544480733</v>
       </c>
       <c r="N2" t="n">
-        <v>187651.561961643</v>
+        <v>184400.1544480733</v>
       </c>
       <c r="O2" t="n">
-        <v>187651.561961643</v>
+        <v>184400.1544480734</v>
       </c>
       <c r="P2" t="n">
-        <v>187651.561961643</v>
+        <v>184400.1544480733</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039031</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.5443739065</v>
       </c>
       <c r="D3" t="n">
-        <v>40478.87875178333</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>175572.7530518668</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
-        <v>16812.40227510018</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>20461.54847120721</v>
+        <v>18364.7156328394</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856134</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784502</v>
       </c>
       <c r="L3" t="n">
-        <v>32980.84506379808</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>146539.3711242536</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
-        <v>12988.5682709979</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.239865111</v>
+        <v>133864.3835971964</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="D4" t="n">
-        <v>146813.1158638625</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
-        <v>13112.43458092701</v>
+        <v>13668.38414064833</v>
       </c>
       <c r="F4" t="n">
-        <v>13602.52425258075</v>
+        <v>13668.38414064833</v>
       </c>
       <c r="G4" t="n">
-        <v>13602.52425258075</v>
+        <v>13668.38414064833</v>
       </c>
       <c r="H4" t="n">
-        <v>13602.52425258075</v>
+        <v>13668.38414064833</v>
       </c>
       <c r="I4" t="n">
         <v>14245.20557049264</v>
@@ -26451,13 +26451,13 @@
         <v>14245.20557049264</v>
       </c>
       <c r="N4" t="n">
-        <v>29443.15222066922</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="O4" t="n">
-        <v>29443.15222066924</v>
+        <v>14245.20557049264</v>
       </c>
       <c r="P4" t="n">
-        <v>29443.15222066924</v>
+        <v>14245.20557049264</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26467,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814195</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>67347.7699100982</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>69472.38000445713</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="F5" t="n">
-        <v>73039.92381662807</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="G5" t="n">
-        <v>73039.92381662807</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="H5" t="n">
-        <v>73039.92381662807</v>
+        <v>73519.34227764755</v>
       </c>
       <c r="I5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26500,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
+        <v>77718.23860579252</v>
+      </c>
+      <c r="N5" t="n">
+        <v>77718.23860579252</v>
+      </c>
+      <c r="O5" t="n">
+        <v>77718.23860579252</v>
+      </c>
+      <c r="P5" t="n">
         <v>77718.2386057925</v>
-      </c>
-      <c r="N5" t="n">
-        <v>75515.61472608971</v>
-      </c>
-      <c r="O5" t="n">
-        <v>75515.61472608971</v>
-      </c>
-      <c r="P5" t="n">
-        <v>75515.61472608971</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-189264.7667004002</v>
+        <v>-222874.2143975984</v>
       </c>
       <c r="C6" t="n">
-        <v>-47073.46604069028</v>
+        <v>-26032.36019915644</v>
       </c>
       <c r="D6" t="n">
-        <v>-66988.20256410108</v>
+        <v>-8691.815825249912</v>
       </c>
       <c r="E6" t="n">
-        <v>-88420.8130535417</v>
+        <v>-72065.99589312031</v>
       </c>
       <c r="F6" t="n">
-        <v>72625.9763343339</v>
+        <v>89669.07931699403</v>
       </c>
       <c r="G6" t="n">
-        <v>89438.37860943405</v>
+        <v>89669.07931699403</v>
       </c>
       <c r="H6" t="n">
-        <v>89438.3786094341</v>
+        <v>89669.0793169941</v>
       </c>
       <c r="I6" t="n">
-        <v>71975.16180058097</v>
+        <v>74048.77029956615</v>
       </c>
       <c r="J6" t="n">
-        <v>-18577.75507320199</v>
+        <v>-68194.34355320786</v>
       </c>
       <c r="K6" t="n">
-        <v>92436.71027178821</v>
+        <v>78599.47736456053</v>
       </c>
       <c r="L6" t="n">
-        <v>59455.86520799008</v>
+        <v>92413.48593240554</v>
       </c>
       <c r="M6" t="n">
-        <v>-54102.66085246546</v>
+        <v>-42576.45868059791</v>
       </c>
       <c r="N6" t="n">
-        <v>69704.22674388619</v>
+        <v>92413.48593240551</v>
       </c>
       <c r="O6" t="n">
-        <v>82692.79501488405</v>
+        <v>92413.4859324056</v>
       </c>
       <c r="P6" t="n">
-        <v>82692.79501488405</v>
+        <v>92413.48593240553</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26787,25 +26787,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>554.6080577318783</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1142.637829020676</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
-        <v>1201.314536457699</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
-        <v>1201.314536457699</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="H4" t="n">
-        <v>1201.314536457699</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="I4" t="n">
         <v>1278.260503384745</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>1219.583795947723</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052212</v>
       </c>
       <c r="D4" t="n">
-        <v>130.3122002117739</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>588.0297712887982</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="F4" t="n">
-        <v>58.67670743702206</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,19 +27030,19 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>76.94596692704681</v>
+        <v>69.06079487080524</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052212</v>
       </c>
       <c r="L4" t="n">
-        <v>130.3122002117739</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>588.029771288798</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052212</v>
       </c>
       <c r="L4" t="n">
-        <v>130.3122002117739</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>588.0297712887982</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
-        <v>58.67670743702206</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>106.8856919847589</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27442,10 +27442,10 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>400</v>
+        <v>4.237799521785178</v>
       </c>
     </row>
     <row r="3">
@@ -27534,16 +27534,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>121.9658537350281</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27597,10 +27597,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>41.97886990037381</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>113.7278999628232</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>9.444860208686578</v>
       </c>
       <c r="D5" t="n">
         <v>400</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>217.8665548556918</v>
@@ -27673,7 +27673,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>33.27974144948216</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27822,7 +27822,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>52.71734668508483</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>253.4649560972574</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>8.01231338097125</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27916,7 +27916,7 @@
         <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>142.6376915830263</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>16.23571033874697</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.23571033874737</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805804063</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773349</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773348</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>47.47818213854771</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,22 +34854,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>65.00584608837249</v>
       </c>
       <c r="L4" t="n">
-        <v>369.8475292559658</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
@@ -34936,10 +34936,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>640.5448952297622</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>407.5401155184051</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>363.9260417052446</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>554.6080577318783</v>
+        <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>554.6080577318783</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35252,10 +35252,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>554.6080577318783</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>106.7111812840044</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -35267,7 +35267,7 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35328,16 +35328,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>87.81302121850588</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
         <v>446.7260637956006</v>
@@ -35346,10 +35346,10 @@
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>46.04812064107182</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35489,7 +35489,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>661.3192390158825</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35647,13 +35647,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="M14" t="n">
-        <v>9.595666553460433</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
@@ -35884,13 +35884,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>9.595666553460433</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,22 +35963,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N19" t="n">
         <v>446.7260637956006</v>
@@ -36121,13 +36121,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>9.595666553460433</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36136,13 +36136,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.81776196807368</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158825</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -36215,7 +36215,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>546.2009481132077</v>
@@ -36285,7 +36285,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
         <v>446.7260637956006</v>
@@ -36528,13 +36528,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36756,16 +36756,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>327.836691885063</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37543,7 +37543,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>81.93455261497229</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37564,7 +37564,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q39" t="n">
         <v>546.2009481132077</v>
@@ -37698,28 +37698,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>103.6899377778283</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>480.3608287033061</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N40" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>440.1440428900419</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
-        <v>367.2527749552542</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>186.1274021209015</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,16 +37780,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>81.93455261497229</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37801,7 +37801,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>103.689937777828</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>480.3608287033061</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N43" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>440.1440428900416</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
-        <v>367.2527749552546</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>186.127402120901</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
@@ -38026,7 +38026,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>81.93455261497229</v>
+        <v>866.2895820207509</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38035,7 +38035,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
         <v>327.836691885063</v>
@@ -38111,7 +38111,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>661.3192390158825</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>103.689937777828</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
-        <v>293.7695028348439</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>438.6699343467889</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>462.9617741343479</v>
+        <v>446.7260637956001</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
-        <v>367.2527749552542</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.127402120901</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
